--- a/data/hotels_by_city/Denver/Denver_shard_216.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_216.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="567">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33388-d83038-Reviews-Radisson_Denver_Central-Denver_Colorado.html</t>
   </si>
   <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Radisson-Hotel-Denver-Central.h10469.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1585 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r600294351-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>33388</t>
+  </si>
+  <si>
+    <t>83038</t>
+  </si>
+  <si>
+    <t>600294351</t>
+  </si>
+  <si>
+    <t>07/27/2018</t>
+  </si>
+  <si>
+    <t>In need of repair...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel lobby is decent, but the rooms could use a serious update and some repair. The cold water didn’t work at all in one of our rooms and the adjoining door between our rooms was hanging on one hinge. It wasn’t worth the price. One of the few redeeming qualities is the hotel’s convenient location. I asked to speak to a manager when we checked out, but they didn’t have one on duty. They suggested I write a message and provide my contact info so the manger could call me. I never heard a thing. It appears Radisson doesn’t care about loyal customers. </t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r600022951-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>600022951</t>
+  </si>
+  <si>
+    <t>07/26/2018</t>
+  </si>
+  <si>
+    <t>Recent stay at Raddison Central Denver CO.</t>
+  </si>
+  <si>
+    <t>We were told that we could not have the room reserved for us because of our service dog. That is in violation of The Americans With Disabilities Act. We did not have any hot water in our room for bathing and showering. We were woken up in the middle of the night by knocking on our door and ten minutes later a phone call. There was a dog in the room next to ours that would start barking at any sound what so ever. This was all night long from midnight on the night of the 19th.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r598582888-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>598582888</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>Newly renovated</t>
+  </si>
+  <si>
+    <t>Although it’s a little off the beaten path, with few amenities in walking distance, this hotel is nicely appointed.  The staff is accommodating and professionally handle complaints.  The complimentary breakfast includes eggs to order another nice touch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r597186833-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>597186833</t>
+  </si>
+  <si>
+    <t>07/17/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r596885999-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>596885999</t>
+  </si>
+  <si>
+    <t>07/16/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r596859026-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>596859026</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r596235218-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>596235218</t>
+  </si>
+  <si>
+    <t>07/14/2018</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>RadissonHotelGroup, Customer Care at Radisson Denver Central, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r596008465-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>596008465</t>
+  </si>
+  <si>
+    <t>07/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r595956658-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>595956658</t>
+  </si>
+  <si>
+    <t>Good location, feels like this hotel needs updating</t>
+  </si>
+  <si>
+    <t>Well, the price was right, the room was clean as was the bathroom but I would not stay at this hotel again. The air conditioner (if there was one) in the lobby was not working so there were huge, noisy fans present to cool the lobby area. Check in was smooth and I did appreciate the free hotel van ride to another downtown location.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r594308745-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>594308745</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r594158459-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>594158459</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>Excellent service</t>
+  </si>
+  <si>
+    <t>The rooms were adequate, I had stopped during a very long and stressful trip and all I cared about was a cold drink, a hot meal and a soft bed. Rachel at the bar downstars was amazing and turned my whole trip around, she was caring, attentive and especially  friendly when I really needed it most. Thank you Radisson staff, and a special thank you to Rachel for making a hellish trip bearable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r594103094-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>594103094</t>
+  </si>
+  <si>
+    <t>Northern Virginia</t>
+  </si>
+  <si>
+    <t>My accommodations were more than expected... my room was really nice and to top it off the front desk staff was amazing, Meagan and everyone was very friendly, accommodating... the shuttle driver was very knowledgeable of the city.  I really enjoyed the complimentary breakfast was very appetizing, they served made to order omelets, the food variety was huge, more the I expected. This hotel offer free hotel shuttle ride to downtown Denver and pick-ups. I’m planning to return and will definately stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r593102094-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>593102094</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>Shoddy / Dangerous</t>
+  </si>
+  <si>
+    <t>Drunks and druggies roam freely with no security and shoddy remodel. Most employees could care less about service except for breakfast and room service employees. Remodeling of rooms was mostly cosmetic and unfinished. Fixtures not level and seems like they shoved things in without thinking it through.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r593077831-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>593077831</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r590987633-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>590987633</t>
+  </si>
+  <si>
+    <t>06/26/2018</t>
+  </si>
+  <si>
+    <t>Would definately stay again!</t>
+  </si>
+  <si>
+    <t>The hotel is very nice with comfy beds and lots of space in the lobby/bar area.  The morning breakfast time is exceptional as to the quality, variety and amount of food offered.  The dining area for breakfast is very large and is set up like a restaurant with cloth napkins, silverware and personnel to remove your dishes from your table.  I really enjoyed my stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r589557449-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>589557449</t>
+  </si>
+  <si>
+    <t>06/21/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family Hotel </t>
+  </si>
+  <si>
+    <t>This is a beautiful hotel with a very relaxed atmosphere. The hotel is ideal for family located in Central Denver just outside of the Denver CBD  some 5 or so km away. I would have easily rated the hotel  a four however I found  the following aspects concerning. Having been promised that the hotel has a shuttle to and from the airport I found this to be untrue when I got to the USA  travelling from South Africa this being my first time. The provided shuttle was fixed yo certain hours and couldn't accommodate the morni g schedules. I found the staff to be quite warm nonetheless  and hospitable. The hotel has a nice television programming that caters for a variety of audience. The internet Wi-Fi is free  fast and unlimited which allowed me uninterrupted access to my family  back home. The facilities are kept clean and the furnishing is of good quality  and comfortable. I wouldn't hesitate to recommend  it for any family  that aspires  to visit  the USA. Breakfast is standard and would equally  rate it a 3. At busy times cutlery would run out at the tables  as staff fail to cope with demand . This requires  attention from management. The swimming pool is nice and a place to go relax. Access is via your hotel room access card  MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a beautiful hotel with a very relaxed atmosphere. The hotel is ideal for family located in Central Denver just outside of the Denver CBD  some 5 or so km away. I would have easily rated the hotel  a four however I found  the following aspects concerning. Having been promised that the hotel has a shuttle to and from the airport I found this to be untrue when I got to the USA  travelling from South Africa this being my first time. The provided shuttle was fixed yo certain hours and couldn't accommodate the morni g schedules. I found the staff to be quite warm nonetheless  and hospitable. The hotel has a nice television programming that caters for a variety of audience. The internet Wi-Fi is free  fast and unlimited which allowed me uninterrupted access to my family  back home. The facilities are kept clean and the furnishing is of good quality  and comfortable. I wouldn't hesitate to recommend  it for any family  that aspires  to visit  the USA. Breakfast is standard and would equally  rate it a 3. At busy times cutlery would run out at the tables  as staff fail to cope with demand . This requires  attention from management. The swimming pool is nice and a place to go relax. Access is via your hotel room access card  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r589263219-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>589263219</t>
+  </si>
+  <si>
+    <t>06/20/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r587510561-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>587510561</t>
+  </si>
+  <si>
+    <t>06/14/2018</t>
+  </si>
+  <si>
+    <t>Hidden surprise</t>
+  </si>
+  <si>
+    <t>This is a hidden surprise, as the location is not picturesque, the scenery is a busy highway and the outside of the hotel is dated and not very appealing, BUT the interior is modern, very clean and feels like a much fancier hotel. There is a spacious lobby bar, a nice sized fitness center and the pool and hot tub area was well appointed and very clean. Would definitely stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r585784501-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>585784501</t>
+  </si>
+  <si>
+    <t>06/07/2018</t>
+  </si>
+  <si>
+    <t>Awful service. Ok room.</t>
+  </si>
+  <si>
+    <t>I have stayed at Radisson hotels in multiple states across the US. This is by far the worst. 
+I booked the room over the phone out of necessity at 9pm and was told the room would be 95 dollars.  I arrived at 10 pm and went into my room. I checked my bank account and noticed I got charged 170 dollars!! I thought it was a simple mistake so I proceeded to the front desk to have it resolved. The young girl that checked me in and also gave me the rate of the room over the phone, told me that those were additional fees that every guest pays for. Well.... I was never, NOT ONCE told about any additional fees. (Taxes, I know exist, but not $75 worth) 
+I was also never told the amount due at time of payment and the girl taking my card was too busy joking around with her co-worker to even tell me the total. 
+I asked for a manger, assuming they would be pleasant and able to assist me. When the manager, Patricia, came out she didn’t even look st me or speak to me. I had to greet her by saying hello and asked her if she was familiar with what was happening. She said yes with a mockingly rude smile and that was all. 
+If I was a 50 year old man I would never have been treated with soluch disprespct....I have stayed at Radisson hotels in multiple states across the US. This is by far the worst. I booked the room over the phone out of necessity at 9pm and was told the room would be 95 dollars.  I arrived at 10 pm and went into my room. I checked my bank account and noticed I got charged 170 dollars!! I thought it was a simple mistake so I proceeded to the front desk to have it resolved. The young girl that checked me in and also gave me the rate of the room over the phone, told me that those were additional fees that every guest pays for. Well.... I was never, NOT ONCE told about any additional fees. (Taxes, I know exist, but not $75 worth) I was also never told the amount due at time of payment and the girl taking my card was too busy joking around with her co-worker to even tell me the total. I asked for a manger, assuming they would be pleasant and able to assist me. When the manager, Patricia, came out she didn’t even look st me or speak to me. I had to greet her by saying hello and asked her if she was familiar with what was happening. She said yes with a mockingly rude smile and that was all. If I was a 50 year old man I would never have been treated with soluch disprespct. (At least, I hope not)The manger, this awful lady, then proceeds to tell me that I cannot cancel my room  after six pm (I DIDNT CHECK IN UNTIL 10!) and if I want to leave then I will not get any of my money back. Not one person apologized for the inconvenience. Not one person did anything to help the situation. And as I walked aaay, The manager and her young co-worker swore at me behind my back!! All because I was charged more than I was told an hour prior and I was charged without being told the total.The lack of decency these people had...And on top of that the towels had a hand print from the previous guests and there was hairs in my bed. Never again, Radisson. Never again.MoreShow less</t>
+  </si>
+  <si>
+    <t>RadissonHotelGroup, Customer Care at Radisson Denver Central, responded to this reviewResponded June 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2018</t>
+  </si>
+  <si>
+    <t>I have stayed at Radisson hotels in multiple states across the US. This is by far the worst. 
+I booked the room over the phone out of necessity at 9pm and was told the room would be 95 dollars.  I arrived at 10 pm and went into my room. I checked my bank account and noticed I got charged 170 dollars!! I thought it was a simple mistake so I proceeded to the front desk to have it resolved. The young girl that checked me in and also gave me the rate of the room over the phone, told me that those were additional fees that every guest pays for. Well.... I was never, NOT ONCE told about any additional fees. (Taxes, I know exist, but not $75 worth) 
+I was also never told the amount due at time of payment and the girl taking my card was too busy joking around with her co-worker to even tell me the total. 
+I asked for a manger, assuming they would be pleasant and able to assist me. When the manager, Patricia, came out she didn’t even look st me or speak to me. I had to greet her by saying hello and asked her if she was familiar with what was happening. She said yes with a mockingly rude smile and that was all. 
+If I was a 50 year old man I would never have been treated with soluch disprespct....I have stayed at Radisson hotels in multiple states across the US. This is by far the worst. I booked the room over the phone out of necessity at 9pm and was told the room would be 95 dollars.  I arrived at 10 pm and went into my room. I checked my bank account and noticed I got charged 170 dollars!! I thought it was a simple mistake so I proceeded to the front desk to have it resolved. The young girl that checked me in and also gave me the rate of the room over the phone, told me that those were additional fees that every guest pays for. Well.... I was never, NOT ONCE told about any additional fees. (Taxes, I know exist, but not $75 worth) I was also never told the amount due at time of payment and the girl taking my card was too busy joking around with her co-worker to even tell me the total. I asked for a manger, assuming they would be pleasant and able to assist me. When the manager, Patricia, came out she didn’t even look st me or speak to me. I had to greet her by saying hello and asked her if she was familiar with what was happening. She said yes with a mockingly rude smile and that was all. If I was a 50 year old man I would never have been treated with soluch disprespct. (At least, I hope not)The manger, this awful lady, then proceeds to tell me that I cannot cancel my room  after six pm (I DIDNT CHECK IN UNTIL 10!) and if I want to leave then I will not get any of my money back. Not one person apologized for the inconvenience. Not one person did anything to help the situation. And as I walked aaay, The manager and her young co-worker swore at me behind my back!! All because I was charged more than I was told an hour prior and I was charged without being told the total.The lack of decency these people had...And on top of that the towels had a hand print from the previous guests and there was hairs in my bed. Never again, Radisson. Never again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r585606781-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>585606781</t>
+  </si>
+  <si>
+    <t>06/06/2018</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>RadissonHotelGroup, Customer Care at Radisson Denver Central, responded to this reviewResponded June 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r585438176-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>585438176</t>
+  </si>
+  <si>
+    <t>06/05/2018</t>
+  </si>
+  <si>
+    <t>Arrived one day early for outdoor pool ,,opening</t>
+  </si>
+  <si>
+    <t>It was a warm evening, and we looked forward to going into the pool after a long day on the road. Chose this property because it had an outdoor pool.  The pool looked clean and beautiful all lit up, but at check in, when I asked about pool hours, I was told pool would not actually be opened for season until the next day.  Clerk accommodating,did what she could to assign us rooms near daughter and friend. Opening door to our room, we got a string whiff of dead mouse, so returned to front desk. Staff person,a woman was attentive, apologetic and accommodated us w/ different room as soon as possible. Breakfast was a hot buffet and 3 egg omelets could be made to order with a list of ingredients to choose from. Carpet and walls a bit dingy and tired decor in public  lounge and eating areas. Bathroom mirrors were brightly lit and fog free. Rooms equipped with small refrigerator which is always appreciated  but lacked small chairs and table eat on. Phone in room had no dialtone so no direct communication w/ desk and rooms can be a good walk from front desk.MoreShow less</t>
+  </si>
+  <si>
+    <t>It was a warm evening, and we looked forward to going into the pool after a long day on the road. Chose this property because it had an outdoor pool.  The pool looked clean and beautiful all lit up, but at check in, when I asked about pool hours, I was told pool would not actually be opened for season until the next day.  Clerk accommodating,did what she could to assign us rooms near daughter and friend. Opening door to our room, we got a string whiff of dead mouse, so returned to front desk. Staff person,a woman was attentive, apologetic and accommodated us w/ different room as soon as possible. Breakfast was a hot buffet and 3 egg omelets could be made to order with a list of ingredients to choose from. Carpet and walls a bit dingy and tired decor in public  lounge and eating areas. Bathroom mirrors were brightly lit and fog free. Rooms equipped with small refrigerator which is always appreciated  but lacked small chairs and table eat on. Phone in room had no dialtone so no direct communication w/ desk and rooms can be a good walk from front desk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r585105302-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>585105302</t>
+  </si>
+  <si>
+    <t>06/04/2018</t>
+  </si>
+  <si>
+    <t>Great Customer Service!</t>
+  </si>
+  <si>
+    <t>This hotel is showing its age a bit, but recent renovations, customer service, and breakfast options more than make up for it!  Check-in and out was extremely fast and efficient thanks to Fallon and Victoria.  In addition, Ciera helped us relocate when we needed a little extra room.  In the evening, Manuel and Melissa were great fun, taking our teasing in good stride and giving some back, all the while ensuring our experience was satisfactory.  The breakfast was great, especially the custom omelettes, and the central location helped us have a great stay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r584414593-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>584414593</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r583771247-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>583771247</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>RadissonHotelGroup, Customer Care at Radisson Denver Central, responded to this reviewResponded June 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r581951516-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>581951516</t>
+  </si>
+  <si>
+    <t>05/22/2018</t>
+  </si>
+  <si>
+    <t>RadissonHotelGroup, Customer Care at Radisson Denver Central, responded to this reviewResponded May 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r581545431-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>581545431</t>
+  </si>
+  <si>
+    <t>05/20/2018</t>
+  </si>
+  <si>
+    <t>Fletcher</t>
+  </si>
+  <si>
+    <t>Staff was great! Suzanne was extremely helpful. She was bartending and also help out with the kitchen, when the cook did not show up! Excellent employee!!! I will definitely come back thanks to her work ethic!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r580132700-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>580132700</t>
+  </si>
+  <si>
+    <t>05/14/2018</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decent hotel not much around to walk to but the bar had good food and the bartender Rae was great. The rooms are comfy and it’s not far from downtown where I had business. The staff was friendly and helpful. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r575873409-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>575873409</t>
+  </si>
+  <si>
+    <t>04/26/2018</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>This hotel is probably the worst we’ve stayed at. Disgustingly dirty rooms, stains on walls, pillows and bedding. Bathroom is just plain gross and dingy. We complained and nothing was done so we ended up staying in our car for the night, it was that bad. Do not stay here, it may look nice and renovated online but once you get to the rooms it’s a different story.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Erika H, Guest Relations Manager at Radisson Denver Central, responded to this reviewResponded April 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is probably the worst we’ve stayed at. Disgustingly dirty rooms, stains on walls, pillows and bedding. Bathroom is just plain gross and dingy. We complained and nothing was done so we ended up staying in our car for the night, it was that bad. Do not stay here, it may look nice and renovated online but once you get to the rooms it’s a different story.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r574904942-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>574904942</t>
+  </si>
+  <si>
+    <t>04/22/2018</t>
+  </si>
+  <si>
+    <t>Friendly Staff &amp; Clean Rooms</t>
+  </si>
+  <si>
+    <t>First time at this Radisson which appears to have undergone a full renovation recently. Bar and restaurant are off main lobby, as is the work out area and meeting rooms. Sleeping room (180) was clean and comfortable, but had no closet for clothes (ironing board and iron that would normally be in a closet were attached to wall near bed), and no towel rack in bathroom (towels were stacked on left side of sink). Front desk staff, as well as bar/restaurant personnel were friendly and helpful. Comp breakfast was typical of many properties with medium quality meats, powered style eggs (though you can get eggs cooked to order), and under cooked potatoes.MoreShow less</t>
+  </si>
+  <si>
+    <t>First time at this Radisson which appears to have undergone a full renovation recently. Bar and restaurant are off main lobby, as is the work out area and meeting rooms. Sleeping room (180) was clean and comfortable, but had no closet for clothes (ironing board and iron that would normally be in a closet were attached to wall near bed), and no towel rack in bathroom (towels were stacked on left side of sink). Front desk staff, as well as bar/restaurant personnel were friendly and helpful. Comp breakfast was typical of many properties with medium quality meats, powered style eggs (though you can get eggs cooked to order), and under cooked potatoes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r574182018-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>574182018</t>
+  </si>
+  <si>
+    <t>04/18/2018</t>
+  </si>
+  <si>
+    <t>Erika H, Guest Relations Manager at Radisson Denver Central, responded to this reviewResponded April 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r572085045-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>572085045</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Erika H, Guest Relations Manager at Radisson Denver Central, responded to this reviewResponded April 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r571994736-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>571994736</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t>Clean, quiet room</t>
+  </si>
+  <si>
+    <t>We stayed here one night because we were worried about the driving conditions getting out of Winter Park. We were very pleased with the cleanliness of the room. I also was pleased that I didn't hear any other guests during our stay. We were on the first floor and close to the pool, which was closed at this time of year. I would definitely recommend this place for a short stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here one night because we were worried about the driving conditions getting out of Winter Park. We were very pleased with the cleanliness of the room. I also was pleased that I didn't hear any other guests during our stay. We were on the first floor and close to the pool, which was closed at this time of year. I would definitely recommend this place for a short stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r571900964-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>571900964</t>
+  </si>
+  <si>
+    <t>Beautiful hotel; will come back</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel last night for a baseball game. I was immediately impressed with how beautiful, clean, and modern the lobby was.  Check-in went quickly and smoothly.The beds were decently comfortable. The room was clean and nicely decorated. The elevator was working and nice, and it was deep enough to fit many people with items. The breakfast had many options. It was well stocked. There were many items: danishes, muffins, bread, scrambled eggs, potatoes, crepes, ham, sausages, biscuits and gravy, oatmeal, waffles, a yogurt and fruit bar, cold cereal, and I'm sure more than I'm recalling. Overall, my stay was good. I had a few minor issues in the room with dings or stains already there, but it wasn't anything that deterred my stay or would in the future. I would recommend the Radisson to anyone who is coming to Denver and doesn't want to pay for the stay downtown. It literally took us ten minutes to get from here to Coors Field using the interstate or back roads. Will definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel last night for a baseball game. I was immediately impressed with how beautiful, clean, and modern the lobby was.  Check-in went quickly and smoothly.The beds were decently comfortable. The room was clean and nicely decorated. The elevator was working and nice, and it was deep enough to fit many people with items. The breakfast had many options. It was well stocked. There were many items: danishes, muffins, bread, scrambled eggs, potatoes, crepes, ham, sausages, biscuits and gravy, oatmeal, waffles, a yogurt and fruit bar, cold cereal, and I'm sure more than I'm recalling. Overall, my stay was good. I had a few minor issues in the room with dings or stains already there, but it wasn't anything that deterred my stay or would in the future. I would recommend the Radisson to anyone who is coming to Denver and doesn't want to pay for the stay downtown. It literally took us ten minutes to get from here to Coors Field using the interstate or back roads. Will definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r568179608-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>568179608</t>
+  </si>
+  <si>
+    <t>03/22/2018</t>
+  </si>
+  <si>
+    <t>Comfortable stay for a quick trip</t>
+  </si>
+  <si>
+    <t>Our traveling youth wrestling team came to Denver for a tournament. I didn't realize the pool was outdoor and closed during our trip in March. Kids were bummed but I think that's more lack of research and not the hotel's fault.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r566529908-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>566529908</t>
+  </si>
+  <si>
+    <t>03/14/2018</t>
+  </si>
+  <si>
+    <t>Car Shopping</t>
+  </si>
+  <si>
+    <t>Hospitality is about people and it's something that this hotel 'gets'. You feel it instantly when calling to confirm your reservation, when you arrive and so on with every department. Their hospitality is stunning. I travel/adventure asolo and came down from the mountains (Vail/Beaver Creek area) to test drive cars. With all the driving I wanted a place close-ish to I70 so that I could spend the night then take off early. My number one concern when I travel (alone) is safety. I felt very safe here.Granted this is an industrial area and if it were in downtown you'd be paying more so ... when you are outside or if near open outdoor areas you will smell industrial smells, inside however they have managed to have the rooms smell nice. Don't know how they do that, but it's a nice touch. And the industrial area is a trade off for the location next to major highways... and location for travel access in either direction was/is important for access to various car dealerships. As I was in Denver shopping for a car.
+There is a laundry room on premises for those staying longer. The food is casual good comfort food. Coffee/Tea is single serving size. Perfect. Carpet and chair are a little worn but quickly brushed off because the place is so clean~! My housekeeper Dika did a flawless job! (Don't forget to tip your housekeeper.) Desk, TV area has granite...Hospitality is about people and it's something that this hotel 'gets'. You feel it instantly when calling to confirm your reservation, when you arrive and so on with every department. Their hospitality is stunning. I travel/adventure asolo and came down from the mountains (Vail/Beaver Creek area) to test drive cars. With all the driving I wanted a place close-ish to I70 so that I could spend the night then take off early. My number one concern when I travel (alone) is safety. I felt very safe here.Granted this is an industrial area and if it were in downtown you'd be paying more so ... when you are outside or if near open outdoor areas you will smell industrial smells, inside however they have managed to have the rooms smell nice. Don't know how they do that, but it's a nice touch. And the industrial area is a trade off for the location next to major highways... and location for travel access in either direction was/is important for access to various car dealerships. As I was in Denver shopping for a car.There is a laundry room on premises for those staying longer. The food is casual good comfort food. Coffee/Tea is single serving size. Perfect. Carpet and chair are a little worn but quickly brushed off because the place is so clean~! My housekeeper Dika did a flawless job! (Don't forget to tip your housekeeper.) Desk, TV area has granite stone counter tops, with a solid nice computer chair. TV has an HDMI extension and two USB ports. Important because I steam (Netflix, Amazon Prime, Xfinity) from my laptop to my television when traveling, and you need an HDMI compatible television. I bring my own HDMI cable. If you're looking for HDMI compatible televisions, they have them.I booked through Expedia, because I burned my Expedia points for the night stay. But I always call directly to confirm with the hotel too. In this case, my plans fell through, I'd burned my points and paid for the stay. I called Christina and she was happy to bump the reservation up a week, so that I wouldn't have to cancel. Then confirmed later with Victoria. Victoria checked me in when I arrived. Thank you both soooo much! Front desk staff is perfect! Also want to mention that their night auditor Guadalupe is helpful and keeps the hospitality going.The bathroom - Great lighting and can tell it's been updated. Stone granite counter tops, lots of storage for guests staying more then a night. Thick towels and a wide duel shower head. Bathroom products are good! Just stayed one night. Thank you everyone for a wonderful, safe and comfortable experience. The large desk and nice computer chair was hugh for me... I like to bring my laptop and I like to have space for it. Yes the property is a bit dated, but it's very clean and you'll find areas in your room where it's been updated. I slept very well. Awesome, awesome, awesome staff from Front Desk, Night Audit, Housekeeping and Security! Now for the bad. Stayed here March 2nd &amp; 3rd. Didn't buy a car that trip. Drove down on March 9th, didn't stay the night, but did purchase then drove home the same day. Bought a 2017 Toyota Yaris with less then 500 miles. Shunned like a prostitute for traveling alone by a bartender/server who couldn't be bothered to be friendly or give customer service because she preferred talking to young man at the bar...I have a message for her... You cannot match my morality, and you certainly or not superior. I didn't appreciate it and it wasn't deserved. Coming from a woman who couldn't stop talking to a guy at the bar.., you had audacity &amp; hypocrisy to treat me that way. If I stay at this hotel again, I will not step foot in Teddy's, or order room service. (The high marks I've given are for the hotel staff, housekeeping, night audit, Teddy's kitchen and breakfast.)MoreShow less</t>
+  </si>
+  <si>
+    <t>Hospitality is about people and it's something that this hotel 'gets'. You feel it instantly when calling to confirm your reservation, when you arrive and so on with every department. Their hospitality is stunning. I travel/adventure asolo and came down from the mountains (Vail/Beaver Creek area) to test drive cars. With all the driving I wanted a place close-ish to I70 so that I could spend the night then take off early. My number one concern when I travel (alone) is safety. I felt very safe here.Granted this is an industrial area and if it were in downtown you'd be paying more so ... when you are outside or if near open outdoor areas you will smell industrial smells, inside however they have managed to have the rooms smell nice. Don't know how they do that, but it's a nice touch. And the industrial area is a trade off for the location next to major highways... and location for travel access in either direction was/is important for access to various car dealerships. As I was in Denver shopping for a car.
+There is a laundry room on premises for those staying longer. The food is casual good comfort food. Coffee/Tea is single serving size. Perfect. Carpet and chair are a little worn but quickly brushed off because the place is so clean~! My housekeeper Dika did a flawless job! (Don't forget to tip your housekeeper.) Desk, TV area has granite...Hospitality is about people and it's something that this hotel 'gets'. You feel it instantly when calling to confirm your reservation, when you arrive and so on with every department. Their hospitality is stunning. I travel/adventure asolo and came down from the mountains (Vail/Beaver Creek area) to test drive cars. With all the driving I wanted a place close-ish to I70 so that I could spend the night then take off early. My number one concern when I travel (alone) is safety. I felt very safe here.Granted this is an industrial area and if it were in downtown you'd be paying more so ... when you are outside or if near open outdoor areas you will smell industrial smells, inside however they have managed to have the rooms smell nice. Don't know how they do that, but it's a nice touch. And the industrial area is a trade off for the location next to major highways... and location for travel access in either direction was/is important for access to various car dealerships. As I was in Denver shopping for a car.There is a laundry room on premises for those staying longer. The food is casual good comfort food. Coffee/Tea is single serving size. Perfect. Carpet and chair are a little worn but quickly brushed off because the place is so clean~! My housekeeper Dika did a flawless job! (Don't forget to tip your housekeeper.) Desk, TV area has granite stone counter tops, with a solid nice computer chair. TV has an HDMI extension and two USB ports. Important because I steam (Netflix, Amazon Prime, Xfinity) from my laptop to my television when traveling, and you need an HDMI compatible television. I bring my own HDMI cable. If you're looking for HDMI compatible televisions, they have them.I booked through Expedia, because I burned my Expedia points for the night stay. But I always call directly to confirm with the hotel too. In this case, my plans fell through, I'd burned my points and paid for the stay. I called Christina and she was happy to bump the reservation up a week, so that I wouldn't have to cancel. Then confirmed later with Victoria. Victoria checked me in when I arrived. Thank you both soooo much! Front desk staff is perfect! Also want to mention that their night auditor Guadalupe is helpful and keeps the hospitality going.The bathroom - Great lighting and can tell it's been updated. Stone granite counter tops, lots of storage for guests staying more then a night. Thick towels and a wide duel shower head. Bathroom products are good! Just stayed one night. Thank you everyone for a wonderful, safe and comfortable experience. The large desk and nice computer chair was hugh for me... I like to bring my laptop and I like to have space for it. Yes the property is a bit dated, but it's very clean and you'll find areas in your room where it's been updated. I slept very well. Awesome, awesome, awesome staff from Front Desk, Night Audit, Housekeeping and Security! Now for the bad. Stayed here March 2nd &amp; 3rd. Didn't buy a car that trip. Drove down on March 9th, didn't stay the night, but did purchase then drove home the same day. Bought a 2017 Toyota Yaris with less then 500 miles. Shunned like a prostitute for traveling alone by a bartender/server who couldn't be bothered to be friendly or give customer service because she preferred talking to young man at the bar...I have a message for her... You cannot match my morality, and you certainly or not superior. I didn't appreciate it and it wasn't deserved. Coming from a woman who couldn't stop talking to a guy at the bar.., you had audacity &amp; hypocrisy to treat me that way. If I stay at this hotel again, I will not step foot in Teddy's, or order room service. (The high marks I've given are for the hotel staff, housekeeping, night audit, Teddy's kitchen and breakfast.)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r564744142-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>564744142</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>Decent Stay but Property needs some Refurbishment.</t>
+  </si>
+  <si>
+    <t>My wife and I were in Denver over the weekend so we stayed two nights here.  I had seen good reviews.  Overall the property is decent and our room was good.  The hotel does need some TLC here and there as it is becoming a bit tired.  Now, the desk staff are terrific and they were very accommodating!  The bartender that was working was also wonderful!  This property does have an excellent breakfast as well.  They have a slight pigeon problem outside some of the 4th floor suites but it wasn't anything that would keep us from staying again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Erika H, Guest Relations Manager at Radisson Denver Central, responded to this reviewResponded March 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2018</t>
+  </si>
+  <si>
+    <t>My wife and I were in Denver over the weekend so we stayed two nights here.  I had seen good reviews.  Overall the property is decent and our room was good.  The hotel does need some TLC here and there as it is becoming a bit tired.  Now, the desk staff are terrific and they were very accommodating!  The bartender that was working was also wonderful!  This property does have an excellent breakfast as well.  They have a slight pigeon problem outside some of the 4th floor suites but it wasn't anything that would keep us from staying again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r560132168-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>560132168</t>
+  </si>
+  <si>
+    <t>02/12/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recogniton of an employee </t>
+  </si>
+  <si>
+    <t>Im currently staying at this hotel for business and i just wanted to compliment one of your employees. Her name is Rae.She has excellent people skills and was always checking in on me.. A keeper for sure!!!! I will definitely visit again just because of her representation of your hotel!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Erika H, Guest Relations Manager at Radisson Denver Central, responded to this reviewResponded February 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2018</t>
+  </si>
+  <si>
+    <t>Im currently staying at this hotel for business and i just wanted to compliment one of your employees. Her name is Rae.She has excellent people skills and was always checking in on me.. A keeper for sure!!!! I will definitely visit again just because of her representation of your hotel!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r560132146-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>560132146</t>
+  </si>
+  <si>
+    <t>Food service</t>
+  </si>
+  <si>
+    <t>Rashaunn is an absolute delight. Her hospitality and etiquette when talking to and Interacting with guests is superb. She is definitely the perfect asset and face of teddys. She knows her job and executes it to and above the standards. MoreShow less</t>
+  </si>
+  <si>
+    <t>Rashaunn is an absolute delight. Her hospitality and etiquette when talking to and Interacting with guests is superb. She is definitely the perfect asset and face of teddys. She knows her job and executes it to and above the standards. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r558138577-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>558138577</t>
+  </si>
+  <si>
+    <t>02/03/2018</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Heather,Alija, Amber and lady in charge,Victoria made my day. They were super,so informative and helpful. They should definitely have a special award.it was all these women who made my stay there so enjoyable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Erika H, Guest Relations Manager at Radisson Denver Central, responded to this reviewResponded February 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2018</t>
+  </si>
+  <si>
+    <t>Heather,Alija, Amber and lady in charge,Victoria made my day. They were super,so informative and helpful. They should definitely have a special award.it was all these women who made my stay there so enjoyable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r556579041-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>556579041</t>
+  </si>
+  <si>
+    <t>01/26/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tower tech </t>
+  </si>
+  <si>
+    <t>Nice hotel. Teddys lounge serves great food, beer is always cold and staff is great. Close to down town shuttle service to events. Very clean. Friday and saturday nights the bar area is usually full after 10 or so. Great breakfast you can even order a custome omelete. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Erika H, Guest Relations Manager at Radisson Denver Central, responded to this reviewResponded January 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2018</t>
+  </si>
+  <si>
+    <t>Nice hotel. Teddys lounge serves great food, beer is always cold and staff is great. Close to down town shuttle service to events. Very clean. Friday and saturday nights the bar area is usually full after 10 or so. Great breakfast you can even order a custome omelete. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r556068469-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>556068469</t>
+  </si>
+  <si>
+    <t>01/24/2018</t>
+  </si>
+  <si>
+    <t>It’s Pretty Bad</t>
+  </si>
+  <si>
+    <t>I read some reviews that were not favorable and thought, “really, how bad could it be?” The answer: pretty bad. The good: the restaurant food was ok; the TV and its channel offerings were good; the heater worker; it was a fairly quiet night’s sleep.The bad: the carpet is VERY old. Lots of stains are apparent; my room phone did not work - every time I tried to call the front desk I got a busy signal; my door deadbolt was inoperable; the only shop in the hotel lacked basic necessities, including deodorant, hairspray, combs, brushes, etc.; my shower had, at its hottest, room temp water; it is evident they threw modern fixtures in an old hotel, but did nothing to upgrade the rest of the hotel; location is not ideal - nothing is around here (though the meeting I flew in for is close).In short, absent any alternative, I would not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>CarlsonRezidor, other at Radisson Denver Central, responded to this reviewResponded January 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2018</t>
+  </si>
+  <si>
+    <t>I read some reviews that were not favorable and thought, “really, how bad could it be?” The answer: pretty bad. The good: the restaurant food was ok; the TV and its channel offerings were good; the heater worker; it was a fairly quiet night’s sleep.The bad: the carpet is VERY old. Lots of stains are apparent; my room phone did not work - every time I tried to call the front desk I got a busy signal; my door deadbolt was inoperable; the only shop in the hotel lacked basic necessities, including deodorant, hairspray, combs, brushes, etc.; my shower had, at its hottest, room temp water; it is evident they threw modern fixtures in an old hotel, but did nothing to upgrade the rest of the hotel; location is not ideal - nothing is around here (though the meeting I flew in for is close).In short, absent any alternative, I would not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r555255453-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>555255453</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Friendly, helpful staff!</t>
+  </si>
+  <si>
+    <t>ALL of the staff was friendly and helpful- especially Heather, at the Front Desk!Also, a great location for the National Western Stock Show!The restaurant food was good and the inclusive breakfast buffet was really good, too.MoreShow less</t>
+  </si>
+  <si>
+    <t>Erika H, Guest Relations Manager at Radisson Denver Central, responded to this reviewResponded January 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2018</t>
+  </si>
+  <si>
+    <t>ALL of the staff was friendly and helpful- especially Heather, at the Front Desk!Also, a great location for the National Western Stock Show!The restaurant food was good and the inclusive breakfast buffet was really good, too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r554055845-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>554055845</t>
+  </si>
+  <si>
+    <t>01/15/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fantastic customer service </t>
+  </si>
+  <si>
+    <t>This is a great hotel for a good price, clean as can be and the bed was very comfortable. Costumer service was fantastic! Ella and Dina at the front desk were very friendly. We will be booking to stay here again next time we're in Denver. Definitely recommend staying here MoreShow less</t>
+  </si>
+  <si>
+    <t>Kelly C, Director of Sales at Radisson Denver Central, responded to this reviewResponded January 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2018</t>
+  </si>
+  <si>
+    <t>This is a great hotel for a good price, clean as can be and the bed was very comfortable. Costumer service was fantastic! Ella and Dina at the front desk were very friendly. We will be booking to stay here again next time we're in Denver. Definitely recommend staying here More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r553868565-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>553868565</t>
+  </si>
+  <si>
+    <t>01/14/2018</t>
+  </si>
+  <si>
+    <t>Partying like Rockstars</t>
+  </si>
+  <si>
+    <t>Great place. Rooms are clean and service is great, especially with the front desk ladies and Kimberley. The bar has recently been renovated and it is incredibly nice and classy. Rea is an incredible bartender, it is a great time :)MoreShow less</t>
+  </si>
+  <si>
+    <t>Great place. Rooms are clean and service is great, especially with the front desk ladies and Kimberley. The bar has recently been renovated and it is incredibly nice and classy. Rea is an incredible bartender, it is a great time :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r553857840-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>553857840</t>
+  </si>
+  <si>
+    <t>Great Experience and Friendly Staff</t>
+  </si>
+  <si>
+    <t>Stopped by for several hours for a business meeting and then a trip to their bar and restaurant. Great experience and zero complaints.The staff were very attentive and ready to help with smiles on their faces. Thanks for the good experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stopped by for several hours for a business meeting and then a trip to their bar and restaurant. Great experience and zero complaints.The staff were very attentive and ready to help with smiles on their faces. Thanks for the good experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r553659669-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>553659669</t>
+  </si>
+  <si>
+    <t>01/13/2018</t>
+  </si>
+  <si>
+    <t>rae, bartender</t>
+  </si>
+  <si>
+    <t>Rea was awesome, speedy, friendly.Best bartender. she brings in business, I know that I think she deserves a raise she's a pretty girl I'm sure she attracts a lot of men guest.He is nothing by professionalMoreShow less</t>
+  </si>
+  <si>
+    <t>Erika H, Guest Relations Manager at Radisson Denver Central, responded to this reviewResponded January 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2018</t>
+  </si>
+  <si>
+    <t>Rea was awesome, speedy, friendly.Best bartender. she brings in business, I know that I think she deserves a raise she's a pretty girl I'm sure she attracts a lot of men guest.He is nothing by professionalMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r553657310-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>553657310</t>
+  </si>
+  <si>
+    <t>Stock show</t>
+  </si>
+  <si>
+    <t>Nice, comfortable hotel.  Rae in the night club was a great server....friendly and engaging.  The hotel is located near stock show attractions and just off i25 for easy access to all of Denver. Great weather!MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice, comfortable hotel.  Rae in the night club was a great server....friendly and engaging.  The hotel is located near stock show attractions and just off i25 for easy access to all of Denver. Great weather!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r553637299-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>553637299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fun weekend in Denver </t>
+  </si>
+  <si>
+    <t>Nice clean. Very good at the front desk pleasant and friendly! Remodeled nicely done. The hall carpet is hideous but otherwise very nice!  Teddy’s fun place. Rae the bartender is great!  Lots of fun. Good DJ. Food is good and reasonable. MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice clean. Very good at the front desk pleasant and friendly! Remodeled nicely done. The hall carpet is hideous but otherwise very nice!  Teddy’s fun place. Rae the bartender is great!  Lots of fun. Good DJ. Food is good and reasonable. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r553458044-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>553458044</t>
+  </si>
+  <si>
+    <t>01/12/2018</t>
+  </si>
+  <si>
+    <t>Great time</t>
+  </si>
+  <si>
+    <t>The Radisson is been remodeled and is much classier than it used to be. Kimberly at the manager tried to make everybody feel at home and enjoy their visit as much as possible. Ray the bartender was fun personable and the perfect bartender making conversation. My friends and I have enjoyed our stay very much and we'll be sure to return here.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Radisson is been remodeled and is much classier than it used to be. Kimberly at the manager tried to make everybody feel at home and enjoy their visit as much as possible. Ray the bartender was fun personable and the perfect bartender making conversation. My friends and I have enjoyed our stay very much and we'll be sure to return here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r553457424-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>553457424</t>
+  </si>
+  <si>
+    <t>Wonderful stay</t>
+  </si>
+  <si>
+    <t>Amazing place to stay, Kimberly went above and beyond to make us feel welcome, and at home. The bartender Ray was amazing, very attentive, and fun to talk with.  The rooms are very comfortable clean nice, and the hotel is newly renovated. The beds are very comfortable, the hotel is clean new and modern.MoreShow less</t>
+  </si>
+  <si>
+    <t>Amazing place to stay, Kimberly went above and beyond to make us feel welcome, and at home. The bartender Ray was amazing, very attentive, and fun to talk with.  The rooms are very comfortable clean nice, and the hotel is newly renovated. The beds are very comfortable, the hotel is clean new and modern.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r553400607-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>553400607</t>
+  </si>
+  <si>
+    <t>Staff went all out to ensure a positive stay</t>
+  </si>
+  <si>
+    <t>Comfortable beds..nice rooms..wonderful staff..enjoyed our stay ..kymberly went above and beyond to make our stay as wonderful as possible...Rae was a great bartender..very attentive.....overall a good time was had by all !!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfortable beds..nice rooms..wonderful staff..enjoyed our stay ..kymberly went above and beyond to make our stay as wonderful as possible...Rae was a great bartender..very attentive.....overall a good time was had by all !!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r551024977-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>551024977</t>
+  </si>
+  <si>
+    <t>01/02/2018</t>
+  </si>
+  <si>
+    <t>Kelly C, Director of Sales at Radisson Denver Central, responded to this reviewResponded January 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r548155013-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>548155013</t>
+  </si>
+  <si>
+    <t>12/19/2017</t>
+  </si>
+  <si>
+    <t>Kelly C, Director of Sales at Radisson Denver Central, responded to this reviewResponded December 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 21, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r548550408-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>548550408</t>
+  </si>
+  <si>
+    <t>12/09/2017</t>
+  </si>
+  <si>
+    <t>An Oasis when you are tired</t>
+  </si>
+  <si>
+    <t>An excellent place to be. Very good breakfast. you get to have a coffee in ceramic cups!  Friendly staff, clean rooms, very good bed. The lighting in the room was very good, and I could work till late. you could also have some dinner in the restaurant if you do not want to go out. Good value and quality service for what you pay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Erika H, Guest Relations Manager at Radisson Denver Central, responded to this reviewResponded December 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 23, 2017</t>
+  </si>
+  <si>
+    <t>An excellent place to be. Very good breakfast. you get to have a coffee in ceramic cups!  Friendly staff, clean rooms, very good bed. The lighting in the room was very good, and I could work till late. you could also have some dinner in the restaurant if you do not want to go out. Good value and quality service for what you pay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r541042175-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>541042175</t>
+  </si>
+  <si>
+    <t>11/14/2017</t>
+  </si>
+  <si>
+    <t>Overbooked</t>
+  </si>
+  <si>
+    <t>Extremely poor service. Hotel was overbooked and dealt with in an extremely poor manner blaming the issue on an earlier shift of staff. No compensation offered for the inconvenience and we were left to wait an undue amount of timeMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Kelly C, Director of Sales at Radisson Denver Central, responded to this reviewResponded November 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2017</t>
+  </si>
+  <si>
+    <t>Extremely poor service. Hotel was overbooked and dealt with in an extremely poor manner blaming the issue on an earlier shift of staff. No compensation offered for the inconvenience and we were left to wait an undue amount of timeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r548550458-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>548550458</t>
+  </si>
+  <si>
+    <t>11/10/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r539843389-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>539843389</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome bed and yummy breakfast </t>
+  </si>
+  <si>
+    <t>We stopped here during a driving trip from MN to CA and it was very nice. Beds were so comfortable and breakfast that was complimentary was one of the best I️ have had. Loved it all.  Only improvement could be more pressure in the shower.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Erika H, General Manager at Radisson Denver Central, responded to this reviewResponded November 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2017</t>
+  </si>
+  <si>
+    <t>We stopped here during a driving trip from MN to CA and it was very nice. Beds were so comfortable and breakfast that was complimentary was one of the best I️ have had. Loved it all.  Only improvement could be more pressure in the shower.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r548550404-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>548550404</t>
+  </si>
+  <si>
+    <t>11/02/2017</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r548550398-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>548550398</t>
+  </si>
+  <si>
+    <t>11/01/2017</t>
+  </si>
+  <si>
+    <t>Clean, comfortable, convenient and Happy Staff</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for a local concert and had planned taking UBER there and back. The Hotel offered a shuttle to our venue so it saved a few bucks and the driver was great! Beds were super comfortable including the pillows, the staff at the restaurant were great as well!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r548550533-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>548550533</t>
+  </si>
+  <si>
+    <t>10/20/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r532004981-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>532004981</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>Rough on the outside, suitable on the inside</t>
+  </si>
+  <si>
+    <t>I didn't find this hotel as horrendous as many on here have. I sense that they've done a lot of recent renovation. We were in town the same weekend as GABF, so we were lucky to have a hotel room for this price at all. The lobby and bar area is fine and I found the rooms to be fine, although the renovation choices are very sort of 70s. FYI the breakfast is complimentary. This was not mentioned to us and we thought we had to pay but it turns out you do not. Just help yourself! The bed is comfy and we were provided with lots of pillows. Our room was clean and we were provided with complimentary water bottles in the room upon arrival (though it would have been nice to have these refreshed daily throughout our 3 night stay). The hotel is in an industrial area next to the highway, so if you don't have a car or aren't comfortable with Uber (which by the way, without traffic, will only cost you $12-14 to get downtown in) don't stay here. If you are just looking for an affordable place that isn't TOO far from downtown, it's fine. If you are looking for a 5 star property, stay elsewhere. I know there is some touch up work it could use (for example buttons in one of the elevators were sort of messed up/missing) but again, depends on what...I didn't find this hotel as horrendous as many on here have. I sense that they've done a lot of recent renovation. We were in town the same weekend as GABF, so we were lucky to have a hotel room for this price at all. The lobby and bar area is fine and I found the rooms to be fine, although the renovation choices are very sort of 70s. FYI the breakfast is complimentary. This was not mentioned to us and we thought we had to pay but it turns out you do not. Just help yourself! The bed is comfy and we were provided with lots of pillows. Our room was clean and we were provided with complimentary water bottles in the room upon arrival (though it would have been nice to have these refreshed daily throughout our 3 night stay). The hotel is in an industrial area next to the highway, so if you don't have a car or aren't comfortable with Uber (which by the way, without traffic, will only cost you $12-14 to get downtown in) don't stay here. If you are just looking for an affordable place that isn't TOO far from downtown, it's fine. If you are looking for a 5 star property, stay elsewhere. I know there is some touch up work it could use (for example buttons in one of the elevators were sort of messed up/missing) but again, depends on what your needs are. Keys seem to be a little bit of an issue, we were assigned literally one of the furthest rooms from the desk, only to get there and find out NEITHER of our two keys worked. Our friends also ended up having an issue with both of their keys the next day....not a huge deal, just a long walk and inconvenience.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kelly C, Director of Sales at Radisson Denver Central, responded to this reviewResponded October 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2017</t>
+  </si>
+  <si>
+    <t>I didn't find this hotel as horrendous as many on here have. I sense that they've done a lot of recent renovation. We were in town the same weekend as GABF, so we were lucky to have a hotel room for this price at all. The lobby and bar area is fine and I found the rooms to be fine, although the renovation choices are very sort of 70s. FYI the breakfast is complimentary. This was not mentioned to us and we thought we had to pay but it turns out you do not. Just help yourself! The bed is comfy and we were provided with lots of pillows. Our room was clean and we were provided with complimentary water bottles in the room upon arrival (though it would have been nice to have these refreshed daily throughout our 3 night stay). The hotel is in an industrial area next to the highway, so if you don't have a car or aren't comfortable with Uber (which by the way, without traffic, will only cost you $12-14 to get downtown in) don't stay here. If you are just looking for an affordable place that isn't TOO far from downtown, it's fine. If you are looking for a 5 star property, stay elsewhere. I know there is some touch up work it could use (for example buttons in one of the elevators were sort of messed up/missing) but again, depends on what...I didn't find this hotel as horrendous as many on here have. I sense that they've done a lot of recent renovation. We were in town the same weekend as GABF, so we were lucky to have a hotel room for this price at all. The lobby and bar area is fine and I found the rooms to be fine, although the renovation choices are very sort of 70s. FYI the breakfast is complimentary. This was not mentioned to us and we thought we had to pay but it turns out you do not. Just help yourself! The bed is comfy and we were provided with lots of pillows. Our room was clean and we were provided with complimentary water bottles in the room upon arrival (though it would have been nice to have these refreshed daily throughout our 3 night stay). The hotel is in an industrial area next to the highway, so if you don't have a car or aren't comfortable with Uber (which by the way, without traffic, will only cost you $12-14 to get downtown in) don't stay here. If you are just looking for an affordable place that isn't TOO far from downtown, it's fine. If you are looking for a 5 star property, stay elsewhere. I know there is some touch up work it could use (for example buttons in one of the elevators were sort of messed up/missing) but again, depends on what your needs are. Keys seem to be a little bit of an issue, we were assigned literally one of the furthest rooms from the desk, only to get there and find out NEITHER of our two keys worked. Our friends also ended up having an issue with both of their keys the next day....not a huge deal, just a long walk and inconvenience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r530788973-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>530788973</t>
+  </si>
+  <si>
+    <t>10/07/2017</t>
+  </si>
+  <si>
+    <t>They gave away our room</t>
+  </si>
+  <si>
+    <t>We flew in for GABF, knowing that this is a busy time we booked months in advance. Due to an issue with our airline we were going to be delayed a day so we called multiple times leading up to the trip to ensure that our room was still our room since we had already paid for it. Two days before the trip we were assured that we were ok only to get here and be told we had no room. We had to waste half a day of our 3 days in Denver waiting for the issue to be sorted out and ended up in a room lesser than the one we paid for so we lost money in the deal. Not a happy camper.MoreShow less</t>
+  </si>
+  <si>
+    <t>Christina C, Front Office Manager at Radisson Denver Central, responded to this reviewResponded October 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2017</t>
+  </si>
+  <si>
+    <t>We flew in for GABF, knowing that this is a busy time we booked months in advance. Due to an issue with our airline we were going to be delayed a day so we called multiple times leading up to the trip to ensure that our room was still our room since we had already paid for it. Two days before the trip we were assured that we were ok only to get here and be told we had no room. We had to waste half a day of our 3 days in Denver waiting for the issue to be sorted out and ended up in a room lesser than the one we paid for so we lost money in the deal. Not a happy camper.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r530213380-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>530213380</t>
+  </si>
+  <si>
+    <t>10/05/2017</t>
+  </si>
+  <si>
+    <t>This is a Bad Place</t>
+  </si>
+  <si>
+    <t>Misled by the name (thinking it was in central Denver), and lured by the inexpensive price, I prebooked three nights at this Radisson.  This was easily the biggest mistake of my cross-country trip.  As soon as I arrived I realized my error; pulling off the highway I discovered it was in an Industrial No Man's Land, the kind of area where you'd expect a Fight Club to start up.  Literally, right by the wrong side of the tracks, the area smelled of exhaust and was easily a $15-20 Lyft to the center of town.  There were constantly people just hanging out in the parking lot which didn't exactly make you feel secure.  The interior of the hotel itself was pretty run down, with the central elevator making strange noises.  My room was nice enough, but the window faced the wall of a factory next door.Bluntly, if you just need a place to crash for the night and have no desire to actually see any of Denver, this might be okay.  If it were about $60 cheaper a night.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Christina C, Front Office Manager at Radisson Denver Central, responded to this reviewResponded October 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2017</t>
+  </si>
+  <si>
+    <t>Misled by the name (thinking it was in central Denver), and lured by the inexpensive price, I prebooked three nights at this Radisson.  This was easily the biggest mistake of my cross-country trip.  As soon as I arrived I realized my error; pulling off the highway I discovered it was in an Industrial No Man's Land, the kind of area where you'd expect a Fight Club to start up.  Literally, right by the wrong side of the tracks, the area smelled of exhaust and was easily a $15-20 Lyft to the center of town.  There were constantly people just hanging out in the parking lot which didn't exactly make you feel secure.  The interior of the hotel itself was pretty run down, with the central elevator making strange noises.  My room was nice enough, but the window faced the wall of a factory next door.Bluntly, if you just need a place to crash for the night and have no desire to actually see any of Denver, this might be okay.  If it were about $60 cheaper a night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r548550388-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>548550388</t>
+  </si>
+  <si>
+    <t>09/25/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r526415818-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>526415818</t>
+  </si>
+  <si>
+    <t>09/21/2017</t>
+  </si>
+  <si>
+    <t>Good enough if you just want a place to sleep</t>
+  </si>
+  <si>
+    <t>The Radisson Denver Central isn't exactly "central." It's south of Downtown and you have to traverse a rather difficult traffic roundabout to get there. And you need a GPS to find it because it's not exactly near anything.That said, the hotel did have nice and clean rooms, although they were not spectacular. The beds were comfortable. You do need to watch out for dogs. The hotel allows small ones and there were some yappy ones near us. But we were so tired that it wasn't a problem. The hotel has free parking and a free breakfast, so that's a plus. It appears to do good business. The front desk staff wasn't exactly overwhelming in its friendliness, although they weren't rude. They likely check in a lot of people each day.MoreShow less</t>
+  </si>
+  <si>
+    <t>Christina L, Front Office Manager at Radisson Denver Central, responded to this reviewResponded September 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2017</t>
+  </si>
+  <si>
+    <t>The Radisson Denver Central isn't exactly "central." It's south of Downtown and you have to traverse a rather difficult traffic roundabout to get there. And you need a GPS to find it because it's not exactly near anything.That said, the hotel did have nice and clean rooms, although they were not spectacular. The beds were comfortable. You do need to watch out for dogs. The hotel allows small ones and there were some yappy ones near us. But we were so tired that it wasn't a problem. The hotel has free parking and a free breakfast, so that's a plus. It appears to do good business. The front desk staff wasn't exactly overwhelming in its friendliness, although they weren't rude. They likely check in a lot of people each day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r524187560-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>524187560</t>
+  </si>
+  <si>
+    <t>09/13/2017</t>
+  </si>
+  <si>
+    <t>A good value that looks better inside than out.</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised. If you're looking for a $230 a night experience, don't go here. But the hotel has been remodeled inside and has a fresh, contemporary look. Our room's TV was a massive HD model. The bar/restaurant was understaffed but the food and drinks were good. Convenient to most downtown attractions. When you figure cost for what you get, this is good option.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised. If you're looking for a $230 a night experience, don't go here. But the hotel has been remodeled inside and has a fresh, contemporary look. Our room's TV was a massive HD model. The bar/restaurant was understaffed but the food and drinks were good. Convenient to most downtown attractions. When you figure cost for what you get, this is good option.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r548550506-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>548550506</t>
+  </si>
+  <si>
+    <t>09/07/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r522264136-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>522264136</t>
+  </si>
+  <si>
+    <t>Booked a room while in the parking lot.  Wasn't disappointed.</t>
+  </si>
+  <si>
+    <t>We were done driving for the day, and literally pulled off near hotels and randomly picked.  The room I booked was nothing fancy, ground floor, windows facing parking.  It was cheap, clean, and easy.   But it was not scary.  Breakfast was free and AWESOME.  The bartender... not so much.   If you aren't expecting a villa or suite, and need a clean reliable place to just rest and shower, this place is nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2017</t>
+  </si>
+  <si>
+    <t>We were done driving for the day, and literally pulled off near hotels and randomly picked.  The room I booked was nothing fancy, ground floor, windows facing parking.  It was cheap, clean, and easy.   But it was not scary.  Breakfast was free and AWESOME.  The bartender... not so much.   If you aren't expecting a villa or suite, and need a clean reliable place to just rest and shower, this place is nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r548550463-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>548550463</t>
+  </si>
+  <si>
+    <t>09/04/2017</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>We enjoyed staying at this hotel.  The hotel was clean and the staff was friendly.  The complimentary breakfast was also good.  The woman making the omelettes was very kind and friendly, and she did a great job making them.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r548550425-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>548550425</t>
+  </si>
+  <si>
+    <t>08/28/2017</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r516871867-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>516871867</t>
+  </si>
+  <si>
+    <t>08/23/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looks nice but isn't </t>
+  </si>
+  <si>
+    <t>This hotel clearly used to be a crappy hotel that they are trying to make nice. There are some quick "renovations" that look trendy. The bed was comfortable but I didn't get much sleep because the walls were thin and I could hear both my neighbors who were up all night and the elevator dinging. The staff was friendly. There is nothing really close by to the hotel so we are downstairs and the food was decent and cheap. Overall I wished I had paid a little more for a slightly nicer place so I could have slept through the night. MoreShow less</t>
+  </si>
+  <si>
+    <t>CarlsonRezidor, Customer Care at Radisson Denver Central, responded to this reviewResponded August 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2017</t>
+  </si>
+  <si>
+    <t>This hotel clearly used to be a crappy hotel that they are trying to make nice. There are some quick "renovations" that look trendy. The bed was comfortable but I didn't get much sleep because the walls were thin and I could hear both my neighbors who were up all night and the elevator dinging. The staff was friendly. There is nothing really close by to the hotel so we are downstairs and the food was decent and cheap. Overall I wished I had paid a little more for a slightly nicer place so I could have slept through the night. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r548550397-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>548550397</t>
+  </si>
+  <si>
+    <t>08/21/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r548550372-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>548550372</t>
+  </si>
+  <si>
+    <t>08/12/2017</t>
+  </si>
+  <si>
+    <t>Very unfriendly</t>
+  </si>
+  <si>
+    <t>The front desk staff at this hotel spent most of their time chatting with each other or with their faces glued to their cell phones. They didn't greet customers as they came in. After returning the next day to pick up the book I left in the room, I was told housekeeping had disposed of it. No lost and found, no phone call ... nothing.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r511732507-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>511732507</t>
+  </si>
+  <si>
+    <t>Looks nice on outside, don't look too close</t>
+  </si>
+  <si>
+    <t>This is our second stay at this hotel in two months.  It is reasonable and convenient for our travels.  It was recently renovated, which looks nice but if you look closely it was done poorly.  Our bathroom door would not open all the way because the tile floor was warped.  Poor patching and paint job in rooms.   We visited the nice pool area last evening after dark.  The gates to the outside were open.  There was a group of people from the parking lot; they brought a BBQ grill into the pool area.  They grilled, smoked and drank beer from glass bottles.  Don't know if they were guests.  We went back to our room through the unlocked exterior doors by the pool.  Another set of exterior double doors near the laundry area were propped open.  Didn't feel very secure here.The front desk people were competent and friendly.  Heading to breakfast now; I'll review after night number 2.MoreShow less</t>
+  </si>
+  <si>
+    <t>Christina L, Front Office Manager at Radisson Denver Central, responded to this reviewResponded September 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2017</t>
+  </si>
+  <si>
+    <t>This is our second stay at this hotel in two months.  It is reasonable and convenient for our travels.  It was recently renovated, which looks nice but if you look closely it was done poorly.  Our bathroom door would not open all the way because the tile floor was warped.  Poor patching and paint job in rooms.   We visited the nice pool area last evening after dark.  The gates to the outside were open.  There was a group of people from the parking lot; they brought a BBQ grill into the pool area.  They grilled, smoked and drank beer from glass bottles.  Don't know if they were guests.  We went back to our room through the unlocked exterior doors by the pool.  Another set of exterior double doors near the laundry area were propped open.  Didn't feel very secure here.The front desk people were competent and friendly.  Heading to breakfast now; I'll review after night number 2.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r509062803-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>509062803</t>
+  </si>
+  <si>
+    <t>08/05/2017</t>
+  </si>
+  <si>
+    <t>Old but nice hotel</t>
+  </si>
+  <si>
+    <t>You can tell this is an older hotel but the updates have made it very comfortable.  Customer Service @ the front desk was good. On check in there was a minor mix up that was quickly fixed.  THANKS! The pool area was excellent - very family friendly.  Breakfast buffet is amazing with eggs to order included!!  I can understand people commenting that it is a bit tricky to get to but once we got used tot he roads it was not an issue.  Next time in Denver we will stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Christina L, Front Office Manager at Radisson Denver Central, responded to this reviewResponded September 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2017</t>
+  </si>
+  <si>
+    <t>You can tell this is an older hotel but the updates have made it very comfortable.  Customer Service @ the front desk was good. On check in there was a minor mix up that was quickly fixed.  THANKS! The pool area was excellent - very family friendly.  Breakfast buffet is amazing with eggs to order included!!  I can understand people commenting that it is a bit tricky to get to but once we got used tot he roads it was not an issue.  Next time in Denver we will stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r548550436-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>548550436</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r506922328-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>506922328</t>
+  </si>
+  <si>
+    <t>07/29/2017</t>
+  </si>
+  <si>
+    <t>Don't trust the shuttle and not really downtown</t>
+  </si>
+  <si>
+    <t>Tl;Dr don't trust the shuttle it will always let you down.The good: room was clean, the breakfast was good. The lobby looks cool.The bad: if you get a handicapped room there is no ironing board and no closet or hangers. We were moved into another room that wasn't handicapped. The hot tub does not really work. It is just warm water with really weak jets. Based on the work permits on the door the hotel is still under renovationsThe ugly: the shuttle is completely ineffective and untrustworthy. It drops in only a few locations and you must reserve with more than an hour notice. Several of the occasions we tried to make a reservation it was full (a small minivan) and on one occasion the driver was over a half an hour late. We were also told that if we wanted a pickup we would need to walk to a different stop for pickup.MoreShow less</t>
+  </si>
+  <si>
+    <t>CarlsonRezidor, Customer Care at Radisson Denver Central, responded to this reviewResponded August 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2017</t>
+  </si>
+  <si>
+    <t>Tl;Dr don't trust the shuttle it will always let you down.The good: room was clean, the breakfast was good. The lobby looks cool.The bad: if you get a handicapped room there is no ironing board and no closet or hangers. We were moved into another room that wasn't handicapped. The hot tub does not really work. It is just warm water with really weak jets. Based on the work permits on the door the hotel is still under renovationsThe ugly: the shuttle is completely ineffective and untrustworthy. It drops in only a few locations and you must reserve with more than an hour notice. Several of the occasions we tried to make a reservation it was full (a small minivan) and on one occasion the driver was over a half an hour late. We were also told that if we wanted a pickup we would need to walk to a different stop for pickup.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r548550406-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>548550406</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r548550362-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>548550362</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>Overall NICE hotel, lobby was great and bar/dining area was AMAZING! Rooms were spacious and comfy also clean! Had a pantry/store available with pretty much everything you needed! Will definitely stay here again and recommend to anyone!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r503653973-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>503653973</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Decent and clean!</t>
+  </si>
+  <si>
+    <t>The hotel is located about 3 miles North from Downtown Denver. The place is right by the  25 Hwy. Interesting enough yo do not hear any traffic nor noise from the rooms. There is only one thing I will criticize about this hotel which is the access. Coming from Downtown you need to take 70 West and get of first exit then take a right. It is a little complicated bu the price was decent. The gym had few out of order electric treadmills but the pool was good. The breakfast was ok regular eggs, cereal and fruit.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>The hotel is located about 3 miles North from Downtown Denver. The place is right by the  25 Hwy. Interesting enough yo do not hear any traffic nor noise from the rooms. There is only one thing I will criticize about this hotel which is the access. Coming from Downtown you need to take 70 West and get of first exit then take a right. It is a little complicated bu the price was decent. The gym had few out of order electric treadmills but the pool was good. The breakfast was ok regular eggs, cereal and fruit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r548550366-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>548550366</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r548550340-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>548550340</t>
+  </si>
+  <si>
+    <t>07/14/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r548550451-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>548550451</t>
+  </si>
+  <si>
+    <t>07/05/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r548550338-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>548550338</t>
+  </si>
+  <si>
+    <t>07/04/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r494100866-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>494100866</t>
+  </si>
+  <si>
+    <t>06/18/2017</t>
+  </si>
+  <si>
+    <t>Not a good choice for women travelling alone</t>
+  </si>
+  <si>
+    <t>I travelled to Denver for an overnight business trip.  There were two massive conventions going on so all of the hotels in downtown that were within my company's travel policy were booked.  This was the next closest option available to me.  As other reviewers have mentioned, the location is not convenient.  The recent remodel helps the property some.  The staff was kind and responsive.  The bed was comfortable, but it was a bit scary for a woman travelling alone.  The common areas were not really all that clean.  I submitted a review after my stay and management was highly responsive.  All to say that I think they need to just bulldoze the current building in favor of a nice new hotel here from scratch to serve as an anchor for revitalizing this part of town.  Until then, I will be doing all I can to stay in the CBD closer to my local office.MoreShow less</t>
+  </si>
+  <si>
+    <t>CarlsonRezidor, Customer Care at Radisson Denver Central, responded to this reviewResponded June 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2017</t>
+  </si>
+  <si>
+    <t>I travelled to Denver for an overnight business trip.  There were two massive conventions going on so all of the hotels in downtown that were within my company's travel policy were booked.  This was the next closest option available to me.  As other reviewers have mentioned, the location is not convenient.  The recent remodel helps the property some.  The staff was kind and responsive.  The bed was comfortable, but it was a bit scary for a woman travelling alone.  The common areas were not really all that clean.  I submitted a review after my stay and management was highly responsive.  All to say that I think they need to just bulldoze the current building in favor of a nice new hotel here from scratch to serve as an anchor for revitalizing this part of town.  Until then, I will be doing all I can to stay in the CBD closer to my local office.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r492491973-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>492491973</t>
+  </si>
+  <si>
+    <t>06/12/2017</t>
+  </si>
+  <si>
+    <t>Interesting stay..</t>
+  </si>
+  <si>
+    <t>I'm not normally one to complain about anything, but I had quite the experience at this hotel.  After a 10 hour drive, we arrived to our hotel (which was pre-booked) only to be told that they had given our room to another guest because we arrived late and were considered a 'no-show'.  They were fully booked and could not book another room so I asked for a recommendation elsewhere, and the front desk lady replied "All of Denver is booked up because of a concert, there is no vacancy."  So, it's late - and we have nowhere to go, literally.  After walking back into the lobby to use the restroom before our midnight search for another bed, I noticed she was on the phone with a manager.  I asked her if she was able to solve the problem, and she said we can actually put you up in another room.  Thank goodness..we had somewhere to sleep.  Walk into the new room only to find the entire table that the TV was on had an ant infestation!! There were ants everywhere, at least 100 of them!  Since we were desperate for sleep, we checked the sheets, hopped in and hoped they wouldn't crawl away from the TV stand.    When we told the front desk about this in the morning, they shrugged their shoulders and said that because of the reno's there are some ants.  We got moved into our original paid...I'm not normally one to complain about anything, but I had quite the experience at this hotel.  After a 10 hour drive, we arrived to our hotel (which was pre-booked) only to be told that they had given our room to another guest because we arrived late and were considered a 'no-show'.  They were fully booked and could not book another room so I asked for a recommendation elsewhere, and the front desk lady replied "All of Denver is booked up because of a concert, there is no vacancy."  So, it's late - and we have nowhere to go, literally.  After walking back into the lobby to use the restroom before our midnight search for another bed, I noticed she was on the phone with a manager.  I asked her if she was able to solve the problem, and she said we can actually put you up in another room.  Thank goodness..we had somewhere to sleep.  Walk into the new room only to find the entire table that the TV was on had an ant infestation!! There were ants everywhere, at least 100 of them!  Since we were desperate for sleep, we checked the sheets, hopped in and hoped they wouldn't crawl away from the TV stand.    When we told the front desk about this in the morning, they shrugged their shoulders and said that because of the reno's there are some ants.  We got moved into our original paid for room for the next night, and after that everything was fine.  I ordered the room on hotels.com, and they gave me a 100% refund for the first night.  Other than the first night, everything else was fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>CarlsonRezidor, Customer Care at Radisson Denver Central, responded to this reviewResponded July 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2017</t>
+  </si>
+  <si>
+    <t>I'm not normally one to complain about anything, but I had quite the experience at this hotel.  After a 10 hour drive, we arrived to our hotel (which was pre-booked) only to be told that they had given our room to another guest because we arrived late and were considered a 'no-show'.  They were fully booked and could not book another room so I asked for a recommendation elsewhere, and the front desk lady replied "All of Denver is booked up because of a concert, there is no vacancy."  So, it's late - and we have nowhere to go, literally.  After walking back into the lobby to use the restroom before our midnight search for another bed, I noticed she was on the phone with a manager.  I asked her if she was able to solve the problem, and she said we can actually put you up in another room.  Thank goodness..we had somewhere to sleep.  Walk into the new room only to find the entire table that the TV was on had an ant infestation!! There were ants everywhere, at least 100 of them!  Since we were desperate for sleep, we checked the sheets, hopped in and hoped they wouldn't crawl away from the TV stand.    When we told the front desk about this in the morning, they shrugged their shoulders and said that because of the reno's there are some ants.  We got moved into our original paid...I'm not normally one to complain about anything, but I had quite the experience at this hotel.  After a 10 hour drive, we arrived to our hotel (which was pre-booked) only to be told that they had given our room to another guest because we arrived late and were considered a 'no-show'.  They were fully booked and could not book another room so I asked for a recommendation elsewhere, and the front desk lady replied "All of Denver is booked up because of a concert, there is no vacancy."  So, it's late - and we have nowhere to go, literally.  After walking back into the lobby to use the restroom before our midnight search for another bed, I noticed she was on the phone with a manager.  I asked her if she was able to solve the problem, and she said we can actually put you up in another room.  Thank goodness..we had somewhere to sleep.  Walk into the new room only to find the entire table that the TV was on had an ant infestation!! There were ants everywhere, at least 100 of them!  Since we were desperate for sleep, we checked the sheets, hopped in and hoped they wouldn't crawl away from the TV stand.    When we told the front desk about this in the morning, they shrugged their shoulders and said that because of the reno's there are some ants.  We got moved into our original paid for room for the next night, and after that everything was fine.  I ordered the room on hotels.com, and they gave me a 100% refund for the first night.  Other than the first night, everything else was fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r492058482-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>492058482</t>
+  </si>
+  <si>
+    <t>06/10/2017</t>
+  </si>
+  <si>
+    <t>Outdated</t>
+  </si>
+  <si>
+    <t>Parking lot is worn out. Lobby has been updated to a modern look. Breakfast is a buffet with someone preparing your fresh made omelette by order. There is only one person making the omelette so the wait could be quite long so if your in a hurry don't bother. Breakfast buffet is your typical holiday inn express with fruit.Room corridor is narrow that you are not able to pull to luggage behind easily with bumping the walls or doors. The outside pool was out of order. The room was somewhat renovated to give a new look which was decent compared to trip to the room. Left the next day and forgot to take my phone wall charger called the same day and they couldn't find it after 3 calls and each time was told they would call but didn't so have up and bought one from best buy. Do not recommend the place. Place is not in a convenient location to restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2017</t>
+  </si>
+  <si>
+    <t>Parking lot is worn out. Lobby has been updated to a modern look. Breakfast is a buffet with someone preparing your fresh made omelette by order. There is only one person making the omelette so the wait could be quite long so if your in a hurry don't bother. Breakfast buffet is your typical holiday inn express with fruit.Room corridor is narrow that you are not able to pull to luggage behind easily with bumping the walls or doors. The outside pool was out of order. The room was somewhat renovated to give a new look which was decent compared to trip to the room. Left the next day and forgot to take my phone wall charger called the same day and they couldn't find it after 3 calls and each time was told they would call but didn't so have up and bought one from best buy. Do not recommend the place. Place is not in a convenient location to restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r484453184-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>484453184</t>
+  </si>
+  <si>
+    <t>05/15/2017</t>
+  </si>
+  <si>
+    <t>Not impressed with property</t>
+  </si>
+  <si>
+    <t>We used this property for two days to attend a local grappling tournament.  The staff was VERY helpful and professional.  We were told the property was recently remodeled and modern. The included breakfast was excellent as were the beds.However, the property is lacking. The remodel work is shoddy at best. Poor paint, hideous carpet, and poor workmanship detracts from the value of staying here. The lack of craftsmanship was very obvoius in the bathroom. The rooms are large enough, but lack any seating other than a desk chair. I have stayed at worse properties for half the price. While the staff is very eager to help, the hotel just feels used up. MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2017</t>
+  </si>
+  <si>
+    <t>We used this property for two days to attend a local grappling tournament.  The staff was VERY helpful and professional.  We were told the property was recently remodeled and modern. The included breakfast was excellent as were the beds.However, the property is lacking. The remodel work is shoddy at best. Poor paint, hideous carpet, and poor workmanship detracts from the value of staying here. The lack of craftsmanship was very obvoius in the bathroom. The rooms are large enough, but lack any seating other than a desk chair. I have stayed at worse properties for half the price. While the staff is very eager to help, the hotel just feels used up. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r483755748-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>483755748</t>
+  </si>
+  <si>
+    <t>05/12/2017</t>
+  </si>
+  <si>
+    <t>Run down, hit or miss service</t>
+  </si>
+  <si>
+    <t>Elevators broken down.  Some days I'd get my trash emptied and bathroom items and some days I wouldn't.  Had to beg for the coffee to be restocked and I never had my water restocked.  There was no microwave in the room so impossible to heat up leftover lunch.  I wish I'd spent a little more and stayed somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>Elevators broken down.  Some days I'd get my trash emptied and bathroom items and some days I wouldn't.  Had to beg for the coffee to be restocked and I never had my water restocked.  There was no microwave in the room so impossible to heat up leftover lunch.  I wish I'd spent a little more and stayed somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r483477819-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>483477819</t>
+  </si>
+  <si>
+    <t>05/11/2017</t>
+  </si>
+  <si>
+    <t>one of the worst experiences!</t>
+  </si>
+  <si>
+    <t>Had a downstairs room that was connected to outside, my girlfriend is a smoker so I would send her outside to smoke (I'm one of those I hate smoke since I quit 2yrs ago after 17yrs!) and she would even leave her butts outside. But they decided to hit us with a 250$ smoking fee, because they said they found ash, seriously it could have even flown in when the door was open I tried to reason with the manager and all she would say back is "Charges stand" in a really smerkey mean way. anyway that was the first complaint.I had stayed here before on several occasions one of the times was when they renovated and the room we got had a busted heater and there was dust EVERYWHERE! But I let it slide and didn't say anything because I thought "ok give them a break there fixing the place up"It's pretty close to downtown,(right by the commercial section yuck!) but the terrible attitude from the manager, the 250$, the dust and the busted heater tells me pay a extra 20-30$ for something nicer. Take it from me that thought "maybe next time will be different" nope this place is GARBAGE you've been warned!MoreShow less</t>
+  </si>
+  <si>
+    <t>Had a downstairs room that was connected to outside, my girlfriend is a smoker so I would send her outside to smoke (I'm one of those I hate smoke since I quit 2yrs ago after 17yrs!) and she would even leave her butts outside. But they decided to hit us with a 250$ smoking fee, because they said they found ash, seriously it could have even flown in when the door was open I tried to reason with the manager and all she would say back is "Charges stand" in a really smerkey mean way. anyway that was the first complaint.I had stayed here before on several occasions one of the times was when they renovated and the room we got had a busted heater and there was dust EVERYWHERE! But I let it slide and didn't say anything because I thought "ok give them a break there fixing the place up"It's pretty close to downtown,(right by the commercial section yuck!) but the terrible attitude from the manager, the 250$, the dust and the busted heater tells me pay a extra 20-30$ for something nicer. Take it from me that thought "maybe next time will be different" nope this place is GARBAGE you've been warned!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83038-r479285355-Radisson_Denver_Central-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>479285355</t>
+  </si>
+  <si>
+    <t>04/26/2017</t>
+  </si>
+  <si>
+    <t>Duped in Denver</t>
+  </si>
+  <si>
+    <t>When the shower handle assembly came off in my husband's hands, that was the time to do something about the numerous problems we encountered at the Radisson Denver Central.  After much ado, the shower was fixed and we received partial compensation for the many inconveniences we endured.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2017</t>
+  </si>
+  <si>
+    <t>When the shower handle assembly came off in my husband's hands, that was the time to do something about the numerous problems we encountered at the Radisson Denver Central.  After much ado, the shower was fixed and we received partial compensation for the many inconveniences we endured.  More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2120,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2152,5786 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>215</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>215</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>215</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>215</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>215</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>215</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>79</v>
+      </c>
+      <c r="X8" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>215</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>215</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>215</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>215</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" t="s">
+        <v>96</v>
+      </c>
+      <c r="L12" t="s">
+        <v>97</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>215</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" t="s">
+        <v>100</v>
+      </c>
+      <c r="L13" t="s">
+        <v>101</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>215</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J14" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" t="s">
+        <v>105</v>
+      </c>
+      <c r="L14" t="s">
+        <v>106</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>92</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>215</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15" t="s">
+        <v>104</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>215</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>110</v>
+      </c>
+      <c r="J16" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" t="s">
+        <v>112</v>
+      </c>
+      <c r="L16" t="s">
+        <v>113</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>92</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>215</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>115</v>
+      </c>
+      <c r="J17" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" t="s">
+        <v>118</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>92</v>
+      </c>
+      <c r="O17" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>215</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>121</v>
+      </c>
+      <c r="J18" t="s">
+        <v>122</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>92</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>215</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" t="s">
+        <v>126</v>
+      </c>
+      <c r="L19" t="s">
+        <v>127</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>92</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>215</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J20" t="s">
+        <v>130</v>
+      </c>
+      <c r="K20" t="s">
+        <v>131</v>
+      </c>
+      <c r="L20" t="s">
+        <v>132</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>92</v>
+      </c>
+      <c r="O20" t="s">
+        <v>78</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>133</v>
+      </c>
+      <c r="X20" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>215</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>137</v>
+      </c>
+      <c r="J21" t="s">
+        <v>138</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s">
+        <v>77</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>139</v>
+      </c>
+      <c r="O21" t="s">
+        <v>65</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>140</v>
+      </c>
+      <c r="X21" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>215</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>143</v>
+      </c>
+      <c r="J22" t="s">
+        <v>144</v>
+      </c>
+      <c r="K22" t="s">
+        <v>145</v>
+      </c>
+      <c r="L22" t="s">
+        <v>146</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>139</v>
+      </c>
+      <c r="O22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>215</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>148</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>149</v>
+      </c>
+      <c r="J23" t="s">
+        <v>150</v>
+      </c>
+      <c r="K23" t="s">
+        <v>151</v>
+      </c>
+      <c r="L23" t="s">
+        <v>152</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>139</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>215</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>154</v>
+      </c>
+      <c r="J24" t="s">
+        <v>155</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>139</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>215</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>157</v>
+      </c>
+      <c r="J25" t="s">
+        <v>158</v>
+      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s">
+        <v>77</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>139</v>
+      </c>
+      <c r="O25" t="s">
+        <v>159</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>160</v>
+      </c>
+      <c r="X25" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>215</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>163</v>
+      </c>
+      <c r="J26" t="s">
+        <v>164</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s">
+        <v>77</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>139</v>
+      </c>
+      <c r="O26" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>165</v>
+      </c>
+      <c r="X26" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>215</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>167</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>168</v>
+      </c>
+      <c r="J27" t="s">
+        <v>169</v>
+      </c>
+      <c r="K27" t="s">
+        <v>170</v>
+      </c>
+      <c r="L27" t="s">
+        <v>171</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>139</v>
+      </c>
+      <c r="O27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>215</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>172</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>173</v>
+      </c>
+      <c r="J28" t="s">
+        <v>174</v>
+      </c>
+      <c r="K28" t="s">
+        <v>175</v>
+      </c>
+      <c r="L28" t="s">
+        <v>176</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>139</v>
+      </c>
+      <c r="O28" t="s">
+        <v>59</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>215</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>177</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>178</v>
+      </c>
+      <c r="J29" t="s">
+        <v>179</v>
+      </c>
+      <c r="K29" t="s">
+        <v>180</v>
+      </c>
+      <c r="L29" t="s">
+        <v>181</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>182</v>
+      </c>
+      <c r="O29" t="s">
+        <v>65</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>183</v>
+      </c>
+      <c r="X29" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>215</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>186</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>187</v>
+      </c>
+      <c r="J30" t="s">
+        <v>188</v>
+      </c>
+      <c r="K30" t="s">
+        <v>189</v>
+      </c>
+      <c r="L30" t="s">
+        <v>190</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>182</v>
+      </c>
+      <c r="O30" t="s">
+        <v>59</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>183</v>
+      </c>
+      <c r="X30" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>215</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>193</v>
+      </c>
+      <c r="J31" t="s">
+        <v>194</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s">
+        <v>77</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>182</v>
+      </c>
+      <c r="O31" t="s">
+        <v>59</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>195</v>
+      </c>
+      <c r="X31" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>215</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>197</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>198</v>
+      </c>
+      <c r="J32" t="s">
+        <v>199</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s">
+        <v>77</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>200</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>201</v>
+      </c>
+      <c r="X32" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>215</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>203</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>204</v>
+      </c>
+      <c r="J33" t="s">
+        <v>205</v>
+      </c>
+      <c r="K33" t="s">
+        <v>206</v>
+      </c>
+      <c r="L33" t="s">
+        <v>207</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O33" t="s">
+        <v>65</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>201</v>
+      </c>
+      <c r="X33" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>215</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>209</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>210</v>
+      </c>
+      <c r="J34" t="s">
+        <v>205</v>
+      </c>
+      <c r="K34" t="s">
+        <v>211</v>
+      </c>
+      <c r="L34" t="s">
+        <v>212</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>182</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>201</v>
+      </c>
+      <c r="X34" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>215</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>214</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>215</v>
+      </c>
+      <c r="J35" t="s">
+        <v>216</v>
+      </c>
+      <c r="K35" t="s">
+        <v>217</v>
+      </c>
+      <c r="L35" t="s">
+        <v>218</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>200</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>215</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>219</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>220</v>
+      </c>
+      <c r="J36" t="s">
+        <v>221</v>
+      </c>
+      <c r="K36" t="s">
+        <v>222</v>
+      </c>
+      <c r="L36" t="s">
+        <v>223</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>200</v>
+      </c>
+      <c r="O36" t="s">
+        <v>78</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>215</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>225</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>226</v>
+      </c>
+      <c r="J37" t="s">
+        <v>227</v>
+      </c>
+      <c r="K37" t="s">
+        <v>228</v>
+      </c>
+      <c r="L37" t="s">
+        <v>229</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>200</v>
+      </c>
+      <c r="O37" t="s">
+        <v>65</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>230</v>
+      </c>
+      <c r="X37" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>215</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>233</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>234</v>
+      </c>
+      <c r="J38" t="s">
+        <v>235</v>
+      </c>
+      <c r="K38" t="s">
+        <v>236</v>
+      </c>
+      <c r="L38" t="s">
+        <v>237</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>238</v>
+      </c>
+      <c r="O38" t="s">
+        <v>59</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>239</v>
+      </c>
+      <c r="X38" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>215</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>242</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>243</v>
+      </c>
+      <c r="J39" t="s">
+        <v>235</v>
+      </c>
+      <c r="K39" t="s">
+        <v>244</v>
+      </c>
+      <c r="L39" t="s">
+        <v>245</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>238</v>
+      </c>
+      <c r="O39" t="s">
+        <v>59</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>239</v>
+      </c>
+      <c r="X39" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>215</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>247</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>248</v>
+      </c>
+      <c r="J40" t="s">
+        <v>249</v>
+      </c>
+      <c r="K40" t="s">
+        <v>250</v>
+      </c>
+      <c r="L40" t="s">
+        <v>251</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>238</v>
+      </c>
+      <c r="O40" t="s">
+        <v>159</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>252</v>
+      </c>
+      <c r="X40" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>215</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>255</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>256</v>
+      </c>
+      <c r="J41" t="s">
+        <v>257</v>
+      </c>
+      <c r="K41" t="s">
+        <v>258</v>
+      </c>
+      <c r="L41" t="s">
+        <v>259</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>260</v>
+      </c>
+      <c r="O41" t="s">
+        <v>59</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>261</v>
+      </c>
+      <c r="X41" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>215</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>264</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>265</v>
+      </c>
+      <c r="J42" t="s">
+        <v>266</v>
+      </c>
+      <c r="K42" t="s">
+        <v>267</v>
+      </c>
+      <c r="L42" t="s">
+        <v>268</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>269</v>
+      </c>
+      <c r="O42" t="s">
+        <v>59</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>270</v>
+      </c>
+      <c r="X42" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>215</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>273</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>274</v>
+      </c>
+      <c r="J43" t="s">
+        <v>275</v>
+      </c>
+      <c r="K43" t="s">
+        <v>276</v>
+      </c>
+      <c r="L43" t="s">
+        <v>277</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>269</v>
+      </c>
+      <c r="O43" t="s">
+        <v>65</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>278</v>
+      </c>
+      <c r="X43" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>215</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>281</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>282</v>
+      </c>
+      <c r="J44" t="s">
+        <v>283</v>
+      </c>
+      <c r="K44" t="s">
+        <v>284</v>
+      </c>
+      <c r="L44" t="s">
+        <v>285</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>286</v>
+      </c>
+      <c r="X44" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>215</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>289</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>290</v>
+      </c>
+      <c r="J45" t="s">
+        <v>291</v>
+      </c>
+      <c r="K45" t="s">
+        <v>292</v>
+      </c>
+      <c r="L45" t="s">
+        <v>293</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>269</v>
+      </c>
+      <c r="O45" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>286</v>
+      </c>
+      <c r="X45" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>215</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>295</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>296</v>
+      </c>
+      <c r="J46" t="s">
+        <v>291</v>
+      </c>
+      <c r="K46" t="s">
+        <v>297</v>
+      </c>
+      <c r="L46" t="s">
+        <v>298</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>269</v>
+      </c>
+      <c r="O46" t="s">
+        <v>59</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>286</v>
+      </c>
+      <c r="X46" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>215</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>300</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>301</v>
+      </c>
+      <c r="J47" t="s">
+        <v>302</v>
+      </c>
+      <c r="K47" t="s">
+        <v>303</v>
+      </c>
+      <c r="L47" t="s">
+        <v>304</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>269</v>
+      </c>
+      <c r="O47" t="s">
+        <v>159</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>305</v>
+      </c>
+      <c r="X47" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>215</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>308</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>309</v>
+      </c>
+      <c r="J48" t="s">
+        <v>302</v>
+      </c>
+      <c r="K48" t="s">
+        <v>310</v>
+      </c>
+      <c r="L48" t="s">
+        <v>311</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>269</v>
+      </c>
+      <c r="O48" t="s">
+        <v>159</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>305</v>
+      </c>
+      <c r="X48" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>215</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>313</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>314</v>
+      </c>
+      <c r="J49" t="s">
+        <v>302</v>
+      </c>
+      <c r="K49" t="s">
+        <v>315</v>
+      </c>
+      <c r="L49" t="s">
+        <v>316</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>269</v>
+      </c>
+      <c r="O49" t="s">
+        <v>65</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>305</v>
+      </c>
+      <c r="X49" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>215</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>318</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>319</v>
+      </c>
+      <c r="J50" t="s">
+        <v>320</v>
+      </c>
+      <c r="K50" t="s">
+        <v>321</v>
+      </c>
+      <c r="L50" t="s">
+        <v>322</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>269</v>
+      </c>
+      <c r="O50" t="s">
+        <v>159</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>305</v>
+      </c>
+      <c r="X50" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>215</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>324</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>325</v>
+      </c>
+      <c r="J51" t="s">
+        <v>320</v>
+      </c>
+      <c r="K51" t="s">
+        <v>326</v>
+      </c>
+      <c r="L51" t="s">
+        <v>327</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>269</v>
+      </c>
+      <c r="O51" t="s">
+        <v>159</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>305</v>
+      </c>
+      <c r="X51" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>215</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>329</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>330</v>
+      </c>
+      <c r="J52" t="s">
+        <v>320</v>
+      </c>
+      <c r="K52" t="s">
+        <v>331</v>
+      </c>
+      <c r="L52" t="s">
+        <v>332</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>269</v>
+      </c>
+      <c r="O52" t="s">
+        <v>159</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>305</v>
+      </c>
+      <c r="X52" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>215</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>334</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>335</v>
+      </c>
+      <c r="J53" t="s">
+        <v>336</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s">
+        <v>77</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>260</v>
+      </c>
+      <c r="O53" t="s">
+        <v>65</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>337</v>
+      </c>
+      <c r="X53" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>215</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>339</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>340</v>
+      </c>
+      <c r="J54" t="s">
+        <v>341</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s">
+        <v>77</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>260</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>342</v>
+      </c>
+      <c r="X54" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>215</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>344</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>345</v>
+      </c>
+      <c r="J55" t="s">
+        <v>346</v>
+      </c>
+      <c r="K55" t="s">
+        <v>347</v>
+      </c>
+      <c r="L55" t="s">
+        <v>348</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>260</v>
+      </c>
+      <c r="O55" t="s">
+        <v>59</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>349</v>
+      </c>
+      <c r="X55" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>215</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>352</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>353</v>
+      </c>
+      <c r="J56" t="s">
+        <v>354</v>
+      </c>
+      <c r="K56" t="s">
+        <v>355</v>
+      </c>
+      <c r="L56" t="s">
+        <v>356</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>357</v>
+      </c>
+      <c r="O56" t="s">
+        <v>59</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>358</v>
+      </c>
+      <c r="X56" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>215</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>361</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>362</v>
+      </c>
+      <c r="J57" t="s">
+        <v>363</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s">
+        <v>77</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>357</v>
+      </c>
+      <c r="O57" t="s">
+        <v>59</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>349</v>
+      </c>
+      <c r="X57" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>215</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>364</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>365</v>
+      </c>
+      <c r="J58" t="s">
+        <v>366</v>
+      </c>
+      <c r="K58" t="s">
+        <v>367</v>
+      </c>
+      <c r="L58" t="s">
+        <v>368</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>357</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>369</v>
+      </c>
+      <c r="X58" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>215</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>372</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>373</v>
+      </c>
+      <c r="J59" t="s">
+        <v>374</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s"/>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>375</v>
+      </c>
+      <c r="O59" t="s">
+        <v>59</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>215</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>376</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>377</v>
+      </c>
+      <c r="J60" t="s">
+        <v>378</v>
+      </c>
+      <c r="K60" t="s">
+        <v>379</v>
+      </c>
+      <c r="L60" t="s">
+        <v>380</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>375</v>
+      </c>
+      <c r="O60" t="s">
+        <v>159</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>215</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>381</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>382</v>
+      </c>
+      <c r="J61" t="s">
+        <v>383</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>375</v>
+      </c>
+      <c r="O61" t="s">
+        <v>65</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>215</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>384</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>385</v>
+      </c>
+      <c r="J62" t="s">
+        <v>386</v>
+      </c>
+      <c r="K62" t="s">
+        <v>387</v>
+      </c>
+      <c r="L62" t="s">
+        <v>388</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>375</v>
+      </c>
+      <c r="O62" t="s">
+        <v>159</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>389</v>
+      </c>
+      <c r="X62" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>215</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>392</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>393</v>
+      </c>
+      <c r="J63" t="s">
+        <v>394</v>
+      </c>
+      <c r="K63" t="s">
+        <v>395</v>
+      </c>
+      <c r="L63" t="s">
+        <v>396</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>375</v>
+      </c>
+      <c r="O63" t="s">
+        <v>65</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>397</v>
+      </c>
+      <c r="X63" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>215</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>400</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>401</v>
+      </c>
+      <c r="J64" t="s">
+        <v>402</v>
+      </c>
+      <c r="K64" t="s">
+        <v>403</v>
+      </c>
+      <c r="L64" t="s">
+        <v>404</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>405</v>
+      </c>
+      <c r="O64" t="s">
+        <v>78</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>406</v>
+      </c>
+      <c r="X64" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>215</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>409</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>410</v>
+      </c>
+      <c r="J65" t="s">
+        <v>411</v>
+      </c>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s"/>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>405</v>
+      </c>
+      <c r="O65" t="s">
+        <v>159</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>215</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>412</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>413</v>
+      </c>
+      <c r="J66" t="s">
+        <v>414</v>
+      </c>
+      <c r="K66" t="s">
+        <v>415</v>
+      </c>
+      <c r="L66" t="s">
+        <v>416</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>405</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="n">
+        <v>2</v>
+      </c>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>2</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>417</v>
+      </c>
+      <c r="X66" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>215</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>420</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>421</v>
+      </c>
+      <c r="J67" t="s">
+        <v>422</v>
+      </c>
+      <c r="K67" t="s">
+        <v>423</v>
+      </c>
+      <c r="L67" t="s">
+        <v>424</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>405</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>417</v>
+      </c>
+      <c r="X67" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>215</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>426</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>427</v>
+      </c>
+      <c r="J68" t="s">
+        <v>428</v>
+      </c>
+      <c r="K68" t="s"/>
+      <c r="L68" t="s"/>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>405</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>215</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>429</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>430</v>
+      </c>
+      <c r="J69" t="s">
+        <v>428</v>
+      </c>
+      <c r="K69" t="s">
+        <v>431</v>
+      </c>
+      <c r="L69" t="s">
+        <v>432</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>433</v>
+      </c>
+      <c r="O69" t="s">
+        <v>159</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>434</v>
+      </c>
+      <c r="X69" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>215</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>437</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>438</v>
+      </c>
+      <c r="J70" t="s">
+        <v>439</v>
+      </c>
+      <c r="K70" t="s">
+        <v>440</v>
+      </c>
+      <c r="L70" t="s">
+        <v>441</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>405</v>
+      </c>
+      <c r="O70" t="s">
+        <v>159</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>215</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>442</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>443</v>
+      </c>
+      <c r="J71" t="s">
+        <v>444</v>
+      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s"/>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>445</v>
+      </c>
+      <c r="O71" t="s">
+        <v>59</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>215</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>446</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>447</v>
+      </c>
+      <c r="J72" t="s">
+        <v>448</v>
+      </c>
+      <c r="K72" t="s">
+        <v>449</v>
+      </c>
+      <c r="L72" t="s">
+        <v>450</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>451</v>
+      </c>
+      <c r="X72" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>215</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>454</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>455</v>
+      </c>
+      <c r="J73" t="s">
+        <v>456</v>
+      </c>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s"/>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>445</v>
+      </c>
+      <c r="O73" t="s">
+        <v>78</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>215</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>457</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>458</v>
+      </c>
+      <c r="J74" t="s">
+        <v>459</v>
+      </c>
+      <c r="K74" t="s">
+        <v>460</v>
+      </c>
+      <c r="L74" t="s">
+        <v>461</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s">
+        <v>445</v>
+      </c>
+      <c r="O74" t="s">
+        <v>59</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>2</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>215</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>462</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>463</v>
+      </c>
+      <c r="J75" t="s">
+        <v>459</v>
+      </c>
+      <c r="K75" t="s">
+        <v>464</v>
+      </c>
+      <c r="L75" t="s">
+        <v>465</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>445</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>466</v>
+      </c>
+      <c r="X75" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>215</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>469</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>470</v>
+      </c>
+      <c r="J76" t="s">
+        <v>471</v>
+      </c>
+      <c r="K76" t="s">
+        <v>472</v>
+      </c>
+      <c r="L76" t="s">
+        <v>473</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>445</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>474</v>
+      </c>
+      <c r="X76" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>215</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>477</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>478</v>
+      </c>
+      <c r="J77" t="s">
+        <v>479</v>
+      </c>
+      <c r="K77" t="s"/>
+      <c r="L77" t="s"/>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>480</v>
+      </c>
+      <c r="O77" t="s">
+        <v>59</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>215</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>481</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>482</v>
+      </c>
+      <c r="J78" t="s">
+        <v>483</v>
+      </c>
+      <c r="K78" t="s">
+        <v>484</v>
+      </c>
+      <c r="L78" t="s">
+        <v>485</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>480</v>
+      </c>
+      <c r="O78" t="s">
+        <v>65</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>486</v>
+      </c>
+      <c r="X78" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>215</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>489</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>490</v>
+      </c>
+      <c r="J79" t="s">
+        <v>491</v>
+      </c>
+      <c r="K79" t="s"/>
+      <c r="L79" t="s"/>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>480</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>215</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>492</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>493</v>
+      </c>
+      <c r="J80" t="s">
+        <v>494</v>
+      </c>
+      <c r="K80" t="s">
+        <v>495</v>
+      </c>
+      <c r="L80" t="s">
+        <v>496</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>480</v>
+      </c>
+      <c r="O80" t="s">
+        <v>65</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>215</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>497</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>498</v>
+      </c>
+      <c r="J81" t="s">
+        <v>499</v>
+      </c>
+      <c r="K81" t="s">
+        <v>500</v>
+      </c>
+      <c r="L81" t="s">
+        <v>501</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>502</v>
+      </c>
+      <c r="O81" t="s">
+        <v>59</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>474</v>
+      </c>
+      <c r="X81" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>215</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>504</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>505</v>
+      </c>
+      <c r="J82" t="s">
+        <v>499</v>
+      </c>
+      <c r="K82" t="s"/>
+      <c r="L82" t="s"/>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="s">
+        <v>480</v>
+      </c>
+      <c r="O82" t="s">
+        <v>59</v>
+      </c>
+      <c r="P82" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>215</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>506</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>507</v>
+      </c>
+      <c r="J83" t="s">
+        <v>508</v>
+      </c>
+      <c r="K83" t="s"/>
+      <c r="L83" t="s"/>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>480</v>
+      </c>
+      <c r="O83" t="s">
+        <v>78</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>215</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>509</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>510</v>
+      </c>
+      <c r="J84" t="s">
+        <v>511</v>
+      </c>
+      <c r="K84" t="s"/>
+      <c r="L84" t="s"/>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="s">
+        <v>480</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>215</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>512</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>513</v>
+      </c>
+      <c r="J85" t="s">
+        <v>514</v>
+      </c>
+      <c r="K85" t="s"/>
+      <c r="L85" t="s"/>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>502</v>
+      </c>
+      <c r="O85" t="s">
+        <v>59</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>215</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>515</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>516</v>
+      </c>
+      <c r="J86" t="s">
+        <v>517</v>
+      </c>
+      <c r="K86" t="s">
+        <v>518</v>
+      </c>
+      <c r="L86" t="s">
+        <v>519</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2</v>
+      </c>
+      <c r="N86" t="s">
+        <v>433</v>
+      </c>
+      <c r="O86" t="s">
+        <v>59</v>
+      </c>
+      <c r="P86" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>2</v>
+      </c>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>2</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>520</v>
+      </c>
+      <c r="X86" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>215</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>523</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>524</v>
+      </c>
+      <c r="J87" t="s">
+        <v>525</v>
+      </c>
+      <c r="K87" t="s">
+        <v>526</v>
+      </c>
+      <c r="L87" t="s">
+        <v>527</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s">
+        <v>502</v>
+      </c>
+      <c r="O87" t="s">
+        <v>59</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="n">
+        <v>2</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>2</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>528</v>
+      </c>
+      <c r="X87" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>215</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>531</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>532</v>
+      </c>
+      <c r="J88" t="s">
+        <v>533</v>
+      </c>
+      <c r="K88" t="s">
+        <v>534</v>
+      </c>
+      <c r="L88" t="s">
+        <v>535</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
+        <v>433</v>
+      </c>
+      <c r="O88" t="s">
+        <v>59</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="s"/>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>536</v>
+      </c>
+      <c r="X88" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>215</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>539</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>540</v>
+      </c>
+      <c r="J89" t="s">
+        <v>541</v>
+      </c>
+      <c r="K89" t="s">
+        <v>542</v>
+      </c>
+      <c r="L89" t="s">
+        <v>543</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s">
+        <v>433</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="s"/>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>544</v>
+      </c>
+      <c r="X89" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>215</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>547</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>548</v>
+      </c>
+      <c r="J90" t="s">
+        <v>549</v>
+      </c>
+      <c r="K90" t="s">
+        <v>550</v>
+      </c>
+      <c r="L90" t="s">
+        <v>551</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" t="s">
+        <v>433</v>
+      </c>
+      <c r="O90" t="s">
+        <v>59</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>544</v>
+      </c>
+      <c r="X90" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>215</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>553</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>554</v>
+      </c>
+      <c r="J91" t="s">
+        <v>555</v>
+      </c>
+      <c r="K91" t="s">
+        <v>556</v>
+      </c>
+      <c r="L91" t="s">
+        <v>557</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s">
+        <v>433</v>
+      </c>
+      <c r="O91" t="s">
+        <v>65</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="n">
+        <v>2</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2</v>
+      </c>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>1</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>544</v>
+      </c>
+      <c r="X91" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>215</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>559</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>560</v>
+      </c>
+      <c r="J92" t="s">
+        <v>561</v>
+      </c>
+      <c r="K92" t="s">
+        <v>562</v>
+      </c>
+      <c r="L92" t="s">
+        <v>563</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="s"/>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>564</v>
+      </c>
+      <c r="X92" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>566</v>
       </c>
     </row>
   </sheetData>
